--- a/biology/Zoologie/Cassique_à_bec_jaune/Cassique_à_bec_jaune.xlsx
+++ b/biology/Zoologie/Cassique_à_bec_jaune/Cassique_à_bec_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_jaune</t>
+          <t>Cassique_à_bec_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amblycercus holosericeus
 Le Cassique à bec jaune (Amblycercus holosericeus) est une espèce de passereaux de la famille des Icteridae. C'est la seule espèce du genre Amblycercus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_jaune</t>
+          <t>Cassique_à_bec_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Photos</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_jaune</t>
+          <t>Cassique_à_bec_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve  à Belize, Bolivie, Colombie, Costa Rica, Équateur, El Salvador, Guatemala, Honduras, Mexique, Nicaragua, Panama, Pérou et Venezuela.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_jaune</t>
+          <t>Cassique_à_bec_jaune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les forêts humides tropicales et subtropicales à basse et haute altitude et les forêts dégradées
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_bec_jaune</t>
+          <t>Cassique_à_bec_jaune</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, 3 sous-espèces ont été décrites :
 Amblycercus holosericeus australis Chapman 1919
